--- a/Documentação/Planejamentos/Planejamento semanal.xlsx
+++ b/Documentação/Planejamentos/Planejamento semanal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20364"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Desktop\Projeto_ProVagas\Documentação\Planejamentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44781915817\Desktop\Nova pasta\Projeto_ProVagas\Documentação\Planejamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88635E9-48C4-4587-9C54-5DBD8262FC1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5A402E-069B-42BA-83E0-85AF27E72463}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
   <si>
     <t>PLANEJAMENTO SEMANAL - CONTROLE CLASSROOM</t>
   </si>
@@ -139,14 +139,17 @@
     <t>Cardinalidades</t>
   </si>
   <si>
-    <t>?</t>
+    <t xml:space="preserve">finaaaal </t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -183,6 +186,13 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -310,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -348,6 +358,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -869,7 +880,9 @@
       <c r="I8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="7"/>
+      <c r="J8" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="K8" s="6"/>
       <c r="L8" s="3"/>
       <c r="M8" s="11" t="s">
@@ -901,7 +914,9 @@
       <c r="I9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="6"/>
+      <c r="J9" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="K9" s="6"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
@@ -1057,7 +1072,7 @@
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>15</v>
       </c>
@@ -1065,30 +1080,32 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J20" s="21"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I22" s="21"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>20</v>
       </c>
